--- a/biology/Médecine/Victor-Joseph_François/Victor-Joseph_François.xlsx
+++ b/biology/Médecine/Victor-Joseph_François/Victor-Joseph_François.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Victor-Joseph_Fran%C3%A7ois</t>
+          <t>Victor-Joseph_François</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor-Joseph François (né à Lille le 28 janvier 1790 et mort en février 1868) est un médecin belge, professeur à l'université catholique de Louvain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Victor-Joseph_Fran%C3%A7ois</t>
+          <t>Victor-Joseph_François</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire du nord de la France, Victor François accomplit ses études de médecine à la faculté de médecine de Paris où il travaille comme préparateur de Thénard et accompagne le botaniste Antoine-Laurent de Jussieu en herborisation.
 Fin 1813, quelques mois après avoir obtenu le titre de médecin, il commence sa carrière comme médecin à la prison militaire de Mons, à l'époque dans le département français de Jemmapes, où affluent les blessés des guerres napoléoniennes. L'année suivante, il se trouve confronté à une épidémie de typhus exanthématique.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Victor-Joseph_Fran%C3%A7ois</t>
+          <t>Victor-Joseph_François</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>liste non exhaustive
 Essai sur les gangrènes spontanées, Mons, 1832 (travail couronné en 1830 par la Société royale de médecine de Bordeaux)
